--- a/Data_clean/MCAS/Estados_US/Edos_USA_2016/VIRGINIA_2016.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2016/VIRGINIA_2016.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D1036"/>
+  <dimension ref="A1:D1030"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,22 +360,22 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Estado de Origen</t>
+          <t>mx_state</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Municipio Origen</t>
+          <t>mx_municipality</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Número de Matrículas</t>
+          <t>n_matriculas</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Porcentaje de Matrículas</t>
+          <t>pct_matriculas</t>
         </is>
       </c>
     </row>
@@ -426,7 +426,7 @@
     <row r="5">
       <c r="B5" t="inlineStr">
         <is>
-          <t>Pabellón de Arteaga</t>
+          <t>Pabellón De Arteaga</t>
         </is>
       </c>
       <c r="C5">
@@ -439,7 +439,7 @@
     <row r="6">
       <c r="B6" t="inlineStr">
         <is>
-          <t>Rincón de Romos</t>
+          <t>Rincón De Romos</t>
         </is>
       </c>
       <c r="C6">
@@ -591,7 +591,7 @@
         <v>5</v>
       </c>
       <c r="D16">
-        <v>0.0009697439875872769</v>
+        <v>0.0009697439875872768</v>
       </c>
     </row>
     <row r="17">
@@ -687,13 +687,13 @@
         <v>5</v>
       </c>
       <c r="D23">
-        <v>0.0009697439875872769</v>
+        <v>0.0009697439875872768</v>
       </c>
     </row>
     <row r="24">
       <c r="B24" t="inlineStr">
         <is>
-          <t>Amatenango de la Frontera</t>
+          <t>Amatenango De La Frontera</t>
         </is>
       </c>
       <c r="C24">
@@ -726,13 +726,13 @@
         <v>5</v>
       </c>
       <c r="D26">
-        <v>0.0009697439875872769</v>
+        <v>0.0009697439875872768</v>
       </c>
     </row>
     <row r="27">
       <c r="B27" t="inlineStr">
         <is>
-          <t>Bejucal de Ocampo</t>
+          <t>Bejucal De Ocampo</t>
         </is>
       </c>
       <c r="C27">
@@ -817,13 +817,13 @@
         <v>5</v>
       </c>
       <c r="D33">
-        <v>0.0009697439875872769</v>
+        <v>0.0009697439875872768</v>
       </c>
     </row>
     <row r="34">
       <c r="B34" t="inlineStr">
         <is>
-          <t>Comitán de Domínguez</t>
+          <t>Comitán De Domínguez</t>
         </is>
       </c>
       <c r="C34">
@@ -1018,7 +1018,7 @@
     <row r="49">
       <c r="B49" t="inlineStr">
         <is>
-          <t>Mazapa de Madero</t>
+          <t>Mazapa De Madero</t>
         </is>
       </c>
       <c r="C49">
@@ -1083,7 +1083,7 @@
     <row r="54">
       <c r="B54" t="inlineStr">
         <is>
-          <t>Ocozocoautla de Espinosa</t>
+          <t>Ocozocoautla De Espinosa</t>
         </is>
       </c>
       <c r="C54">
@@ -1161,7 +1161,7 @@
     <row r="60">
       <c r="B60" t="inlineStr">
         <is>
-          <t>Salto de Agua</t>
+          <t>Salto De Agua</t>
         </is>
       </c>
       <c r="C60">
@@ -1174,7 +1174,7 @@
     <row r="61">
       <c r="B61" t="inlineStr">
         <is>
-          <t>San Cristóbal de las Casas</t>
+          <t>San Cristóbal De Las Casas</t>
         </is>
       </c>
       <c r="C61">
@@ -1311,7 +1311,7 @@
         <v>5</v>
       </c>
       <c r="D71">
-        <v>0.0009697439875872769</v>
+        <v>0.0009697439875872768</v>
       </c>
     </row>
     <row r="72">
@@ -1569,7 +1569,7 @@
     <row r="91">
       <c r="B91" t="inlineStr">
         <is>
-          <t>Guadalupe y Calvo</t>
+          <t>Guadalupe Y Calvo</t>
         </is>
       </c>
       <c r="C91">
@@ -1595,7 +1595,7 @@
     <row r="93">
       <c r="B93" t="inlineStr">
         <is>
-          <t>Hidalgo del Parral</t>
+          <t>Hidalgo Del Parral</t>
         </is>
       </c>
       <c r="C93">
@@ -1782,7 +1782,7 @@
     <row r="107">
       <c r="B107" t="inlineStr">
         <is>
-          <t>San Juan de Sabinas</t>
+          <t>San Juan De Sabinas</t>
         </is>
       </c>
       <c r="C107">
@@ -1898,13 +1898,13 @@
         <v>5</v>
       </c>
       <c r="D115">
-        <v>0.0009697439875872769</v>
+        <v>0.0009697439875872768</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Ciudad de México</t>
+          <t>Ciudad De México</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
@@ -1961,7 +1961,7 @@
     <row r="120">
       <c r="B120" t="inlineStr">
         <is>
-          <t>Cuajimalpa de Morelos</t>
+          <t>Cuajimalpa De Morelos</t>
         </is>
       </c>
       <c r="C120">
@@ -2239,7 +2239,7 @@
     <row r="141">
       <c r="B141" t="inlineStr">
         <is>
-          <t>Nombre de Dios</t>
+          <t>Nombre De Dios</t>
         </is>
       </c>
       <c r="C141">
@@ -2291,7 +2291,7 @@
     <row r="145">
       <c r="B145" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C145">
@@ -2304,7 +2304,7 @@
     <row r="146">
       <c r="B146" t="inlineStr">
         <is>
-          <t>San Luis del Cordero</t>
+          <t>San Luis Del Cordero</t>
         </is>
       </c>
       <c r="C146">
@@ -2343,12 +2343,12 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>Estado de México</t>
+          <t>Estado De México</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Acambay de Ruíz Castañeda</t>
+          <t>Acambay De Ruíz Castañeda</t>
         </is>
       </c>
       <c r="C149">
@@ -2374,7 +2374,7 @@
     <row r="151">
       <c r="B151" t="inlineStr">
         <is>
-          <t>Almoloya de Alquisiras</t>
+          <t>Almoloya De Alquisiras</t>
         </is>
       </c>
       <c r="C151">
@@ -2387,7 +2387,7 @@
     <row r="152">
       <c r="B152" t="inlineStr">
         <is>
-          <t>Almoloya de Juárez</t>
+          <t>Almoloya De Juárez</t>
         </is>
       </c>
       <c r="C152">
@@ -2439,7 +2439,7 @@
     <row r="156">
       <c r="B156" t="inlineStr">
         <is>
-          <t>Atizapán de Zaragoza</t>
+          <t>Atizapán De Zaragoza</t>
         </is>
       </c>
       <c r="C156">
@@ -2582,7 +2582,7 @@
     <row r="167">
       <c r="B167" t="inlineStr">
         <is>
-          <t>Ecatepec de Morelos</t>
+          <t>Ecatepec De Morelos</t>
         </is>
       </c>
       <c r="C167">
@@ -2608,7 +2608,7 @@
     <row r="169">
       <c r="B169" t="inlineStr">
         <is>
-          <t>Ixtapan de la Sal</t>
+          <t>Ixtapan De La Sal</t>
         </is>
       </c>
       <c r="C169">
@@ -2621,7 +2621,7 @@
     <row r="170">
       <c r="B170" t="inlineStr">
         <is>
-          <t>Ixtapan del Oro</t>
+          <t>Ixtapan Del Oro</t>
         </is>
       </c>
       <c r="C170">
@@ -2751,7 +2751,7 @@
     <row r="180">
       <c r="B180" t="inlineStr">
         <is>
-          <t>Naucalpan de Juárez</t>
+          <t>Naucalpan De Juárez</t>
         </is>
       </c>
       <c r="C180">
@@ -2829,7 +2829,7 @@
     <row r="186">
       <c r="B186" t="inlineStr">
         <is>
-          <t>San Felipe del Progreso</t>
+          <t>San Felipe Del Progreso</t>
         </is>
       </c>
       <c r="C186">
@@ -2842,7 +2842,7 @@
     <row r="187">
       <c r="B187" t="inlineStr">
         <is>
-          <t>San Martín de las Pirámides</t>
+          <t>San Martín De Las Pirámides</t>
         </is>
       </c>
       <c r="C187">
@@ -2940,13 +2940,13 @@
         <v>5</v>
       </c>
       <c r="D194">
-        <v>0.0009697439875872769</v>
+        <v>0.0009697439875872768</v>
       </c>
     </row>
     <row r="195">
       <c r="B195" t="inlineStr">
         <is>
-          <t>Tenango del Valle</t>
+          <t>Tenango Del Valle</t>
         </is>
       </c>
       <c r="C195">
@@ -2992,7 +2992,7 @@
         <v>5</v>
       </c>
       <c r="D198">
-        <v>0.0009697439875872769</v>
+        <v>0.0009697439875872768</v>
       </c>
     </row>
     <row r="199">
@@ -3037,7 +3037,7 @@
     <row r="202">
       <c r="B202" t="inlineStr">
         <is>
-          <t>Tlalnepantla de Baz</t>
+          <t>Tlalnepantla De Baz</t>
         </is>
       </c>
       <c r="C202">
@@ -3089,7 +3089,7 @@
     <row r="206">
       <c r="B206" t="inlineStr">
         <is>
-          <t>Valle de Bravo</t>
+          <t>Valle De Bravo</t>
         </is>
       </c>
       <c r="C206">
@@ -3102,7 +3102,7 @@
     <row r="207">
       <c r="B207" t="inlineStr">
         <is>
-          <t>Valle de Chalco Solidaridad</t>
+          <t>Valle De Chalco Solidaridad</t>
         </is>
       </c>
       <c r="C207">
@@ -3224,7 +3224,7 @@
     <row r="216">
       <c r="B216" t="inlineStr">
         <is>
-          <t>San Miguel de Allende</t>
+          <t>San Miguel De Allende</t>
         </is>
       </c>
       <c r="C216">
@@ -3237,7 +3237,7 @@
     <row r="217">
       <c r="B217" t="inlineStr">
         <is>
-          <t>Apaseo el Alto</t>
+          <t>Apaseo El Alto</t>
         </is>
       </c>
       <c r="C217">
@@ -3250,14 +3250,14 @@
     <row r="218">
       <c r="B218" t="inlineStr">
         <is>
-          <t>Apaseo el Grande</t>
+          <t>Apaseo El Grande</t>
         </is>
       </c>
       <c r="C218">
         <v>5</v>
       </c>
       <c r="D218">
-        <v>0.0009697439875872769</v>
+        <v>0.0009697439875872768</v>
       </c>
     </row>
     <row r="219">
@@ -3296,7 +3296,7 @@
         <v>5</v>
       </c>
       <c r="D221">
-        <v>0.0009697439875872769</v>
+        <v>0.0009697439875872768</v>
       </c>
     </row>
     <row r="222">
@@ -3309,7 +3309,7 @@
         <v>5</v>
       </c>
       <c r="D222">
-        <v>0.0009697439875872769</v>
+        <v>0.0009697439875872768</v>
       </c>
     </row>
     <row r="223">
@@ -3335,13 +3335,13 @@
         <v>5</v>
       </c>
       <c r="D224">
-        <v>0.0009697439875872769</v>
+        <v>0.0009697439875872768</v>
       </c>
     </row>
     <row r="225">
       <c r="B225" t="inlineStr">
         <is>
-          <t>Dolores Hidalgo Cuna de la Independencia Nacional</t>
+          <t>Dolores Hidalgo Cuna De La Independencia Nacional</t>
         </is>
       </c>
       <c r="C225">
@@ -3393,7 +3393,7 @@
     <row r="229">
       <c r="B229" t="inlineStr">
         <is>
-          <t>Jaral del Progreso</t>
+          <t>Jaral Del Progreso</t>
         </is>
       </c>
       <c r="C229">
@@ -3484,7 +3484,7 @@
     <row r="236">
       <c r="B236" t="inlineStr">
         <is>
-          <t>Purísima del Rincón</t>
+          <t>Purísima Del Rincón</t>
         </is>
       </c>
       <c r="C236">
@@ -3536,7 +3536,7 @@
     <row r="240">
       <c r="B240" t="inlineStr">
         <is>
-          <t>San Diego de la Unión</t>
+          <t>San Diego De La Unión</t>
         </is>
       </c>
       <c r="C240">
@@ -3562,7 +3562,7 @@
     <row r="242">
       <c r="B242" t="inlineStr">
         <is>
-          <t>San Francisco del Rincón</t>
+          <t>San Francisco Del Rincón</t>
         </is>
       </c>
       <c r="C242">
@@ -3588,7 +3588,7 @@
     <row r="244">
       <c r="B244" t="inlineStr">
         <is>
-          <t>San Luis de la Paz</t>
+          <t>San Luis De La Paz</t>
         </is>
       </c>
       <c r="C244">
@@ -3601,7 +3601,7 @@
     <row r="245">
       <c r="B245" t="inlineStr">
         <is>
-          <t>Santa Cruz de Juventino Rosas</t>
+          <t>Santa Cruz De Juventino Rosas</t>
         </is>
       </c>
       <c r="C245">
@@ -3627,7 +3627,7 @@
     <row r="247">
       <c r="B247" t="inlineStr">
         <is>
-          <t>Silao de la Victoria</t>
+          <t>Silao De La Victoria</t>
         </is>
       </c>
       <c r="C247">
@@ -3679,7 +3679,7 @@
     <row r="251">
       <c r="B251" t="inlineStr">
         <is>
-          <t>Valle de Santiago</t>
+          <t>Valle De Santiago</t>
         </is>
       </c>
       <c r="C251">
@@ -3749,7 +3749,7 @@
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>Acapulco de Juárez</t>
+          <t>Acapulco De Juárez</t>
         </is>
       </c>
       <c r="C256">
@@ -3775,7 +3775,7 @@
     <row r="258">
       <c r="B258" t="inlineStr">
         <is>
-          <t>Ajuchitlán del Progreso</t>
+          <t>Ajuchitlán Del Progreso</t>
         </is>
       </c>
       <c r="C258">
@@ -3788,7 +3788,7 @@
     <row r="259">
       <c r="B259" t="inlineStr">
         <is>
-          <t>Alcozauca de Guerrero</t>
+          <t>Alcozauca De Guerrero</t>
         </is>
       </c>
       <c r="C259">
@@ -3827,7 +3827,7 @@
     <row r="262">
       <c r="B262" t="inlineStr">
         <is>
-          <t>Atlamajalcingo del Monte</t>
+          <t>Atlamajalcingo Del Monte</t>
         </is>
       </c>
       <c r="C262">
@@ -3847,13 +3847,13 @@
         <v>5</v>
       </c>
       <c r="D263">
-        <v>0.0009697439875872769</v>
+        <v>0.0009697439875872768</v>
       </c>
     </row>
     <row r="264">
       <c r="B264" t="inlineStr">
         <is>
-          <t>Atoyac de Álvarez</t>
+          <t>Atoyac De Álvarez</t>
         </is>
       </c>
       <c r="C264">
@@ -3866,7 +3866,7 @@
     <row r="265">
       <c r="B265" t="inlineStr">
         <is>
-          <t>Ayutla de los Libres</t>
+          <t>Ayutla De Los Libres</t>
         </is>
       </c>
       <c r="C265">
@@ -3892,7 +3892,7 @@
     <row r="267">
       <c r="B267" t="inlineStr">
         <is>
-          <t>Chilapa de Álvarez</t>
+          <t>Chilapa De Álvarez</t>
         </is>
       </c>
       <c r="C267">
@@ -3905,7 +3905,7 @@
     <row r="268">
       <c r="B268" t="inlineStr">
         <is>
-          <t>Chilpancingo de los Bravo</t>
+          <t>Chilpancingo De Los Bravo</t>
         </is>
       </c>
       <c r="C268">
@@ -3931,7 +3931,7 @@
     <row r="270">
       <c r="B270" t="inlineStr">
         <is>
-          <t>Coyuca de Benítez</t>
+          <t>Coyuca De Benítez</t>
         </is>
       </c>
       <c r="C270">
@@ -3944,7 +3944,7 @@
     <row r="271">
       <c r="B271" t="inlineStr">
         <is>
-          <t>Coyuca de Catalán</t>
+          <t>Coyuca De Catalán</t>
         </is>
       </c>
       <c r="C271">
@@ -3970,7 +3970,7 @@
     <row r="273">
       <c r="B273" t="inlineStr">
         <is>
-          <t>Cutzamala de Pinzón</t>
+          <t>Cutzamala De Pinzón</t>
         </is>
       </c>
       <c r="C273">
@@ -3996,7 +3996,7 @@
     <row r="275">
       <c r="B275" t="inlineStr">
         <is>
-          <t>Huitzuco de los Figueroa</t>
+          <t>Huitzuco De Los Figueroa</t>
         </is>
       </c>
       <c r="C275">
@@ -4009,7 +4009,7 @@
     <row r="276">
       <c r="B276" t="inlineStr">
         <is>
-          <t>Iguala de la Independencia</t>
+          <t>Iguala De La Independencia</t>
         </is>
       </c>
       <c r="C276">
@@ -4035,7 +4035,7 @@
     <row r="278">
       <c r="B278" t="inlineStr">
         <is>
-          <t>Ixcateopan de Cuauhtémoc</t>
+          <t>Ixcateopan De Cuauhtémoc</t>
         </is>
       </c>
       <c r="C278">
@@ -4048,7 +4048,7 @@
     <row r="279">
       <c r="B279" t="inlineStr">
         <is>
-          <t>Zihuatanejo de Azueta</t>
+          <t>Zihuatanejo De Azueta</t>
         </is>
       </c>
       <c r="C279">
@@ -4087,7 +4087,7 @@
     <row r="282">
       <c r="B282" t="inlineStr">
         <is>
-          <t>Mártir de Cuilapan</t>
+          <t>Mártir De Cuilapan</t>
         </is>
       </c>
       <c r="C282">
@@ -4211,7 +4211,7 @@
         <v>5</v>
       </c>
       <c r="D291">
-        <v>0.0009697439875872769</v>
+        <v>0.0009697439875872768</v>
       </c>
     </row>
     <row r="292">
@@ -4230,7 +4230,7 @@
     <row r="293">
       <c r="B293" t="inlineStr">
         <is>
-          <t>Taxco de Alarcón</t>
+          <t>Taxco De Alarcón</t>
         </is>
       </c>
       <c r="C293">
@@ -4256,7 +4256,7 @@
     <row r="295">
       <c r="B295" t="inlineStr">
         <is>
-          <t>Técpan de Galeana</t>
+          <t>Técpan De Galeana</t>
         </is>
       </c>
       <c r="C295">
@@ -4282,7 +4282,7 @@
     <row r="297">
       <c r="B297" t="inlineStr">
         <is>
-          <t>Tixtla de Guerrero</t>
+          <t>Tixtla De Guerrero</t>
         </is>
       </c>
       <c r="C297">
@@ -4302,7 +4302,7 @@
         <v>5</v>
       </c>
       <c r="D298">
-        <v>0.0009697439875872769</v>
+        <v>0.0009697439875872768</v>
       </c>
     </row>
     <row r="299">
@@ -4321,7 +4321,7 @@
     <row r="300">
       <c r="B300" t="inlineStr">
         <is>
-          <t>Tlalixtaquilla de Maldonado</t>
+          <t>Tlalixtaquilla De Maldonado</t>
         </is>
       </c>
       <c r="C300">
@@ -4334,7 +4334,7 @@
     <row r="301">
       <c r="B301" t="inlineStr">
         <is>
-          <t>Tlapa de Comonfort</t>
+          <t>Tlapa De Comonfort</t>
         </is>
       </c>
       <c r="C301">
@@ -4495,7 +4495,7 @@
     <row r="313">
       <c r="B313" t="inlineStr">
         <is>
-          <t>Atotonilco el Grande</t>
+          <t>Atotonilco El Grande</t>
         </is>
       </c>
       <c r="C313">
@@ -4547,7 +4547,7 @@
     <row r="317">
       <c r="B317" t="inlineStr">
         <is>
-          <t>Cuautepec de Hinojosa</t>
+          <t>Cuautepec De Hinojosa</t>
         </is>
       </c>
       <c r="C317">
@@ -4573,7 +4573,7 @@
     <row r="319">
       <c r="B319" t="inlineStr">
         <is>
-          <t>Huasca de Ocampo</t>
+          <t>Huasca De Ocampo</t>
         </is>
       </c>
       <c r="C319">
@@ -4625,7 +4625,7 @@
     <row r="323">
       <c r="B323" t="inlineStr">
         <is>
-          <t>Huejutla de Reyes</t>
+          <t>Huejutla De Reyes</t>
         </is>
       </c>
       <c r="C323">
@@ -4716,7 +4716,7 @@
     <row r="330">
       <c r="B330" t="inlineStr">
         <is>
-          <t>Mineral del Chico</t>
+          <t>Mineral Del Chico</t>
         </is>
       </c>
       <c r="C330">
@@ -4729,7 +4729,7 @@
     <row r="331">
       <c r="B331" t="inlineStr">
         <is>
-          <t>Mixquiahuala de Juárez</t>
+          <t>Mixquiahuala De Juárez</t>
         </is>
       </c>
       <c r="C331">
@@ -4755,7 +4755,7 @@
     <row r="333">
       <c r="B333" t="inlineStr">
         <is>
-          <t>Pachuca de Soto</t>
+          <t>Pachuca De Soto</t>
         </is>
       </c>
       <c r="C333">
@@ -4794,7 +4794,7 @@
     <row r="336">
       <c r="B336" t="inlineStr">
         <is>
-          <t>Progreso de Obregón</t>
+          <t>Progreso De Obregón</t>
         </is>
       </c>
       <c r="C336">
@@ -4814,13 +4814,13 @@
         <v>5</v>
       </c>
       <c r="D337">
-        <v>0.0009697439875872769</v>
+        <v>0.0009697439875872768</v>
       </c>
     </row>
     <row r="338">
       <c r="B338" t="inlineStr">
         <is>
-          <t>Santiago de Anaya</t>
+          <t>Santiago De Anaya</t>
         </is>
       </c>
       <c r="C338">
@@ -4872,7 +4872,7 @@
     <row r="342">
       <c r="B342" t="inlineStr">
         <is>
-          <t>Tenango de Doria</t>
+          <t>Tenango De Doria</t>
         </is>
       </c>
       <c r="C342">
@@ -4898,7 +4898,7 @@
     <row r="344">
       <c r="B344" t="inlineStr">
         <is>
-          <t>Tepehuacán de Guerrero</t>
+          <t>Tepehuacán De Guerrero</t>
         </is>
       </c>
       <c r="C344">
@@ -4911,7 +4911,7 @@
     <row r="345">
       <c r="B345" t="inlineStr">
         <is>
-          <t>Tepeji del Río de Ocampo</t>
+          <t>Tepeji Del Río De Ocampo</t>
         </is>
       </c>
       <c r="C345">
@@ -4924,7 +4924,7 @@
     <row r="346">
       <c r="B346" t="inlineStr">
         <is>
-          <t>Tezontepec de Aldama</t>
+          <t>Tezontepec De Aldama</t>
         </is>
       </c>
       <c r="C346">
@@ -4989,20 +4989,20 @@
     <row r="351">
       <c r="B351" t="inlineStr">
         <is>
-          <t>Tula de Allende</t>
+          <t>Tula De Allende</t>
         </is>
       </c>
       <c r="C351">
         <v>5</v>
       </c>
       <c r="D351">
-        <v>0.0009697439875872769</v>
+        <v>0.0009697439875872768</v>
       </c>
     </row>
     <row r="352">
       <c r="B352" t="inlineStr">
         <is>
-          <t>Tulancingo de Bravo</t>
+          <t>Tulancingo De Bravo</t>
         </is>
       </c>
       <c r="C352">
@@ -5028,7 +5028,7 @@
     <row r="354">
       <c r="B354" t="inlineStr">
         <is>
-          <t>Zacualtipán de Ángeles</t>
+          <t>Zacualtipán De Ángeles</t>
         </is>
       </c>
       <c r="C354">
@@ -5124,7 +5124,7 @@
     <row r="361">
       <c r="B361" t="inlineStr">
         <is>
-          <t>Atotonilco el Alto</t>
+          <t>Atotonilco El Alto</t>
         </is>
       </c>
       <c r="C361">
@@ -5215,7 +5215,7 @@
     <row r="368">
       <c r="B368" t="inlineStr">
         <is>
-          <t>Encarnación de Díaz</t>
+          <t>Encarnación De Díaz</t>
         </is>
       </c>
       <c r="C368">
@@ -5280,7 +5280,7 @@
     <row r="373">
       <c r="B373" t="inlineStr">
         <is>
-          <t>Jilotlán de los Dolores</t>
+          <t>Jilotlán De Los Dolores</t>
         </is>
       </c>
       <c r="C373">
@@ -5306,7 +5306,7 @@
     <row r="375">
       <c r="B375" t="inlineStr">
         <is>
-          <t>Lagos de Moreno</t>
+          <t>Lagos De Moreno</t>
         </is>
       </c>
       <c r="C375">
@@ -5332,7 +5332,7 @@
     <row r="377">
       <c r="B377" t="inlineStr">
         <is>
-          <t>Ojuelos de Jalisco</t>
+          <t>Ojuelos De Jalisco</t>
         </is>
       </c>
       <c r="C377">
@@ -5371,7 +5371,7 @@
     <row r="380">
       <c r="B380" t="inlineStr">
         <is>
-          <t>San Cristóbal de la Barranca</t>
+          <t>San Cristóbal De La Barranca</t>
         </is>
       </c>
       <c r="C380">
@@ -5397,7 +5397,7 @@
     <row r="382">
       <c r="B382" t="inlineStr">
         <is>
-          <t>San Juan de los Lagos</t>
+          <t>San Juan De Los Lagos</t>
         </is>
       </c>
       <c r="C382">
@@ -5423,20 +5423,20 @@
     <row r="384">
       <c r="B384" t="inlineStr">
         <is>
-          <t>San Martín de Bolaños</t>
+          <t>San Martín De Bolaños</t>
         </is>
       </c>
       <c r="C384">
         <v>5</v>
       </c>
       <c r="D384">
-        <v>0.0009697439875872769</v>
+        <v>0.0009697439875872768</v>
       </c>
     </row>
     <row r="385">
       <c r="B385" t="inlineStr">
         <is>
-          <t>San Miguel el Alto</t>
+          <t>San Miguel El Alto</t>
         </is>
       </c>
       <c r="C385">
@@ -5469,7 +5469,7 @@
         <v>5</v>
       </c>
       <c r="D387">
-        <v>0.0009697439875872769</v>
+        <v>0.0009697439875872768</v>
       </c>
     </row>
     <row r="388">
@@ -5501,7 +5501,7 @@
     <row r="390">
       <c r="B390" t="inlineStr">
         <is>
-          <t>Tepatitlán de Morelos</t>
+          <t>Tepatitlán De Morelos</t>
         </is>
       </c>
       <c r="C390">
@@ -5527,7 +5527,7 @@
     <row r="392">
       <c r="B392" t="inlineStr">
         <is>
-          <t>Tizapán el Alto</t>
+          <t>Tizapán El Alto</t>
         </is>
       </c>
       <c r="C392">
@@ -5540,7 +5540,7 @@
     <row r="393">
       <c r="B393" t="inlineStr">
         <is>
-          <t>Tlajomulco de Zúñiga</t>
+          <t>Tlajomulco De Zúñiga</t>
         </is>
       </c>
       <c r="C393">
@@ -5573,7 +5573,7 @@
         <v>5</v>
       </c>
       <c r="D395">
-        <v>0.0009697439875872769</v>
+        <v>0.0009697439875872768</v>
       </c>
     </row>
     <row r="396">
@@ -5592,7 +5592,7 @@
     <row r="397">
       <c r="B397" t="inlineStr">
         <is>
-          <t>Unión de San Antonio</t>
+          <t>Unión De San Antonio</t>
         </is>
       </c>
       <c r="C397">
@@ -5605,7 +5605,7 @@
     <row r="398">
       <c r="B398" t="inlineStr">
         <is>
-          <t>Unión de Tula</t>
+          <t>Unión De Tula</t>
         </is>
       </c>
       <c r="C398">
@@ -5618,7 +5618,7 @@
     <row r="399">
       <c r="B399" t="inlineStr">
         <is>
-          <t>Valle de Juárez</t>
+          <t>Valle De Juárez</t>
         </is>
       </c>
       <c r="C399">
@@ -5670,7 +5670,7 @@
     <row r="403">
       <c r="B403" t="inlineStr">
         <is>
-          <t>Yahualica de González Gallo</t>
+          <t>Yahualica De González Gallo</t>
         </is>
       </c>
       <c r="C403">
@@ -5709,7 +5709,7 @@
     <row r="406">
       <c r="B406" t="inlineStr">
         <is>
-          <t>Zapotlán el Grande</t>
+          <t>Zapotlán El Grande</t>
         </is>
       </c>
       <c r="C406">
@@ -6416,7 +6416,7 @@
     <row r="460">
       <c r="B460" t="inlineStr">
         <is>
-          <t>Tiquicheo de Nicolás Romero</t>
+          <t>Tiquicheo De Nicolás Romero</t>
         </is>
       </c>
       <c r="C460">
@@ -6566,7 +6566,7 @@
         <v>5</v>
       </c>
       <c r="D471">
-        <v>0.0009697439875872769</v>
+        <v>0.0009697439875872768</v>
       </c>
     </row>
     <row r="472">
@@ -6629,7 +6629,7 @@
     <row r="476">
       <c r="B476" t="inlineStr">
         <is>
-          <t>Coatlán del Río</t>
+          <t>Coatlán Del Río</t>
         </is>
       </c>
       <c r="C476">
@@ -6694,7 +6694,7 @@
     <row r="481">
       <c r="B481" t="inlineStr">
         <is>
-          <t>Jonacatepec de Leandro Valle</t>
+          <t>Jonacatepec De Leandro Valle</t>
         </is>
       </c>
       <c r="C481">
@@ -6740,13 +6740,13 @@
         <v>5</v>
       </c>
       <c r="D484">
-        <v>0.0009697439875872769</v>
+        <v>0.0009697439875872768</v>
       </c>
     </row>
     <row r="485">
       <c r="B485" t="inlineStr">
         <is>
-          <t>Puente de Ixtla</t>
+          <t>Puente De Ixtla</t>
         </is>
       </c>
       <c r="C485">
@@ -6824,7 +6824,7 @@
     <row r="491">
       <c r="B491" t="inlineStr">
         <is>
-          <t>Tlaltizapán de Zapata</t>
+          <t>Tlaltizapán De Zapata</t>
         </is>
       </c>
       <c r="C491">
@@ -6844,7 +6844,7 @@
         <v>5</v>
       </c>
       <c r="D492">
-        <v>0.0009697439875872769</v>
+        <v>0.0009697439875872768</v>
       </c>
     </row>
     <row r="493">
@@ -6933,7 +6933,7 @@
     <row r="499">
       <c r="B499" t="inlineStr">
         <is>
-          <t>Ixtlán del Río</t>
+          <t>Ixtlán Del Río</t>
         </is>
       </c>
       <c r="C499">
@@ -7133,7 +7133,7 @@
     <row r="514">
       <c r="B514" t="inlineStr">
         <is>
-          <t>Mier y Noriega</t>
+          <t>Mier Y Noriega</t>
         </is>
       </c>
       <c r="C514">
@@ -7172,7 +7172,7 @@
     <row r="517">
       <c r="B517" t="inlineStr">
         <is>
-          <t>San Nicolás de los Garza</t>
+          <t>San Nicolás De Los Garza</t>
         </is>
       </c>
       <c r="C517">
@@ -7203,7 +7203,7 @@
       </c>
       <c r="B519" t="inlineStr">
         <is>
-          <t>Acatlán de Pérez Figueroa</t>
+          <t>Acatlán De Pérez Figueroa</t>
         </is>
       </c>
       <c r="C519">
@@ -7223,7 +7223,7 @@
         <v>5</v>
       </c>
       <c r="D520">
-        <v>0.0009697439875872769</v>
+        <v>0.0009697439875872768</v>
       </c>
     </row>
     <row r="521">
@@ -7255,7 +7255,7 @@
     <row r="523">
       <c r="B523" t="inlineStr">
         <is>
-          <t>Chalcatongo de Hidalgo</t>
+          <t>Chalcatongo De Hidalgo</t>
         </is>
       </c>
       <c r="C523">
@@ -7281,7 +7281,7 @@
     <row r="525">
       <c r="B525" t="inlineStr">
         <is>
-          <t>Coicoyán de las Flores</t>
+          <t>Coicoyán De Las Flores</t>
         </is>
       </c>
       <c r="C525">
@@ -7294,7 +7294,7 @@
     <row r="526">
       <c r="B526" t="inlineStr">
         <is>
-          <t>Constancia del Rosario</t>
+          <t>Constancia Del Rosario</t>
         </is>
       </c>
       <c r="C526">
@@ -7320,7 +7320,7 @@
     <row r="528">
       <c r="B528" t="inlineStr">
         <is>
-          <t>Guadalupe de Ramírez</t>
+          <t>Guadalupe De Ramírez</t>
         </is>
       </c>
       <c r="C528">
@@ -7333,7 +7333,7 @@
     <row r="529">
       <c r="B529" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Ejutla de Crespo</t>
+          <t>Heroica Ciudad De Ejutla De Crespo</t>
         </is>
       </c>
       <c r="C529">
@@ -7346,7 +7346,7 @@
     <row r="530">
       <c r="B530" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Huajuapan de León</t>
+          <t>Heroica Ciudad De Huajuapan De León</t>
         </is>
       </c>
       <c r="C530">
@@ -7359,7 +7359,7 @@
     <row r="531">
       <c r="B531" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Tlaxiaco</t>
+          <t>Heroica Ciudad De Tlaxiaco</t>
         </is>
       </c>
       <c r="C531">
@@ -7372,7 +7372,7 @@
     <row r="532">
       <c r="B532" t="inlineStr">
         <is>
-          <t>Ixtlán de Juárez</t>
+          <t>Ixtlán De Juárez</t>
         </is>
       </c>
       <c r="C532">
@@ -7385,7 +7385,7 @@
     <row r="533">
       <c r="B533" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Juchitán de Zaragoza</t>
+          <t>Heroica Ciudad De Juchitán De Zaragoza</t>
         </is>
       </c>
       <c r="C533">
@@ -7424,7 +7424,7 @@
     <row r="536">
       <c r="B536" t="inlineStr">
         <is>
-          <t>Mariscala de Juárez</t>
+          <t>Mariscala De Juárez</t>
         </is>
       </c>
       <c r="C536">
@@ -7437,7 +7437,7 @@
     <row r="537">
       <c r="B537" t="inlineStr">
         <is>
-          <t>Mártires de Tacubaya</t>
+          <t>Mártires De Tacubaya</t>
         </is>
       </c>
       <c r="C537">
@@ -7476,7 +7476,7 @@
     <row r="540">
       <c r="B540" t="inlineStr">
         <is>
-          <t>Miahuatlán de Porfirio Díaz</t>
+          <t>Miahuatlán De Porfirio Díaz</t>
         </is>
       </c>
       <c r="C540">
@@ -7489,7 +7489,7 @@
     <row r="541">
       <c r="B541" t="inlineStr">
         <is>
-          <t>Nejapa de Madero</t>
+          <t>Nejapa De Madero</t>
         </is>
       </c>
       <c r="C541">
@@ -7502,7 +7502,7 @@
     <row r="542">
       <c r="B542" t="inlineStr">
         <is>
-          <t>Oaxaca de Juárez</t>
+          <t>Oaxaca De Juárez</t>
         </is>
       </c>
       <c r="C542">
@@ -7515,7 +7515,7 @@
     <row r="543">
       <c r="B543" t="inlineStr">
         <is>
-          <t>Ocotlán de Morelos</t>
+          <t>Ocotlán De Morelos</t>
         </is>
       </c>
       <c r="C543">
@@ -7528,7 +7528,7 @@
     <row r="544">
       <c r="B544" t="inlineStr">
         <is>
-          <t>Putla Villa de Guerrero</t>
+          <t>Putla Villa De Guerrero</t>
         </is>
       </c>
       <c r="C544">
@@ -7639,7 +7639,7 @@
         <v>5</v>
       </c>
       <c r="D552">
-        <v>0.0009697439875872769</v>
+        <v>0.0009697439875872768</v>
       </c>
     </row>
     <row r="553">
@@ -7671,7 +7671,7 @@
     <row r="555">
       <c r="B555" t="inlineStr">
         <is>
-          <t>San Francisco del Mar</t>
+          <t>San Francisco Del Mar</t>
         </is>
       </c>
       <c r="C555">
@@ -7860,7 +7860,7 @@
         <v>5</v>
       </c>
       <c r="D569">
-        <v>0.0009697439875872769</v>
+        <v>0.0009697439875872768</v>
       </c>
     </row>
     <row r="570">
@@ -8009,7 +8009,7 @@
     <row r="581">
       <c r="B581" t="inlineStr">
         <is>
-          <t>San Miguel el Grande</t>
+          <t>San Miguel El Grande</t>
         </is>
       </c>
       <c r="C581">
@@ -8042,7 +8042,7 @@
         <v>5</v>
       </c>
       <c r="D583">
-        <v>0.0009697439875872769</v>
+        <v>0.0009697439875872768</v>
       </c>
     </row>
     <row r="584">
@@ -8334,7 +8334,7 @@
     <row r="606">
       <c r="B606" t="inlineStr">
         <is>
-          <t>Santa Inés del Monte</t>
+          <t>Santa Inés Del Monte</t>
         </is>
       </c>
       <c r="C606">
@@ -8354,7 +8354,7 @@
         <v>5</v>
       </c>
       <c r="D607">
-        <v>0.0009697439875872769</v>
+        <v>0.0009697439875872768</v>
       </c>
     </row>
     <row r="608">
@@ -8380,13 +8380,13 @@
         <v>5</v>
       </c>
       <c r="D609">
-        <v>0.0009697439875872769</v>
+        <v>0.0009697439875872768</v>
       </c>
     </row>
     <row r="610">
       <c r="B610" t="inlineStr">
         <is>
-          <t>Santa María del Tule</t>
+          <t>Santa María Del Tule</t>
         </is>
       </c>
       <c r="C610">
@@ -8575,7 +8575,7 @@
         <v>5</v>
       </c>
       <c r="D624">
-        <v>0.0009697439875872769</v>
+        <v>0.0009697439875872768</v>
       </c>
     </row>
     <row r="625">
@@ -8685,7 +8685,7 @@
     <row r="633">
       <c r="B633" t="inlineStr">
         <is>
-          <t>Santo Domingo de Morelos</t>
+          <t>Santo Domingo De Morelos</t>
         </is>
       </c>
       <c r="C633">
@@ -8789,20 +8789,20 @@
     <row r="641">
       <c r="B641" t="inlineStr">
         <is>
-          <t>Tamazulápam del Espíritu Santo</t>
+          <t>Tamazulápam Del Espíritu Santo</t>
         </is>
       </c>
       <c r="C641">
         <v>5</v>
       </c>
       <c r="D641">
-        <v>0.0009697439875872769</v>
+        <v>0.0009697439875872768</v>
       </c>
     </row>
     <row r="642">
       <c r="B642" t="inlineStr">
         <is>
-          <t>Tataltepec de Valdés</t>
+          <t>Tataltepec De Valdés</t>
         </is>
       </c>
       <c r="C642">
@@ -8815,7 +8815,7 @@
     <row r="643">
       <c r="B643" t="inlineStr">
         <is>
-          <t>Teotitlán de Flores Magón</t>
+          <t>Teotitlán De Flores Magón</t>
         </is>
       </c>
       <c r="C643">
@@ -8828,7 +8828,7 @@
     <row r="644">
       <c r="B644" t="inlineStr">
         <is>
-          <t>Heroica Villa Tezoatlán de Segura y Luna, Cuna de la Independencia de Oaxaca</t>
+          <t>Heroica Villa Tezoatlán De Segura Y Luna, Cuna De La Independencia De Oaxaca</t>
         </is>
       </c>
       <c r="C644">
@@ -8841,7 +8841,7 @@
     <row r="645">
       <c r="B645" t="inlineStr">
         <is>
-          <t>Tlacolula de Matamoros</t>
+          <t>Tlacolula De Matamoros</t>
         </is>
       </c>
       <c r="C645">
@@ -8854,7 +8854,7 @@
     <row r="646">
       <c r="B646" t="inlineStr">
         <is>
-          <t>Totontepec Villa de Morelos</t>
+          <t>Totontepec Villa De Morelos</t>
         </is>
       </c>
       <c r="C646">
@@ -8867,7 +8867,7 @@
     <row r="647">
       <c r="B647" t="inlineStr">
         <is>
-          <t>Villa de Etla</t>
+          <t>Villa De Etla</t>
         </is>
       </c>
       <c r="C647">
@@ -8880,7 +8880,7 @@
     <row r="648">
       <c r="B648" t="inlineStr">
         <is>
-          <t>Villa de Tamazulápam del Progreso</t>
+          <t>Villa De Tamazulápam Del Progreso</t>
         </is>
       </c>
       <c r="C648">
@@ -8893,7 +8893,7 @@
     <row r="649">
       <c r="B649" t="inlineStr">
         <is>
-          <t>Villa de Tututepec</t>
+          <t>Villa De Tututepec</t>
         </is>
       </c>
       <c r="C649">
@@ -8906,7 +8906,7 @@
     <row r="650">
       <c r="B650" t="inlineStr">
         <is>
-          <t>Villa de Zaachila</t>
+          <t>Villa De Zaachila</t>
         </is>
       </c>
       <c r="C650">
@@ -8932,7 +8932,7 @@
     <row r="652">
       <c r="B652" t="inlineStr">
         <is>
-          <t>Villa Sola de Vega</t>
+          <t>Villa Sola De Vega</t>
         </is>
       </c>
       <c r="C652">
@@ -8945,7 +8945,7 @@
     <row r="653">
       <c r="B653" t="inlineStr">
         <is>
-          <t>Zapotitlán del Río</t>
+          <t>Zapotitlán Del Río</t>
         </is>
       </c>
       <c r="C653">
@@ -8971,7 +8971,7 @@
     <row r="655">
       <c r="B655" t="inlineStr">
         <is>
-          <t>Zimatlán de Álvarez</t>
+          <t>Zimatlán De Álvarez</t>
         </is>
       </c>
       <c r="C655">
@@ -9074,7 +9074,7 @@
         <v>5</v>
       </c>
       <c r="D662">
-        <v>0.0009697439875872769</v>
+        <v>0.0009697439875872768</v>
       </c>
     </row>
     <row r="663">
@@ -9119,7 +9119,7 @@
     <row r="666">
       <c r="B666" t="inlineStr">
         <is>
-          <t>Chalchicomula de Sesma</t>
+          <t>Chalchicomula De Sesma</t>
         </is>
       </c>
       <c r="C666">
@@ -9236,7 +9236,7 @@
     <row r="675">
       <c r="B675" t="inlineStr">
         <is>
-          <t>Cuayuca de Andrade</t>
+          <t>Cuayuca De Andrade</t>
         </is>
       </c>
       <c r="C675">
@@ -9249,7 +9249,7 @@
     <row r="676">
       <c r="B676" t="inlineStr">
         <is>
-          <t>Cuetzalan del Progreso</t>
+          <t>Cuetzalan Del Progreso</t>
         </is>
       </c>
       <c r="C676">
@@ -9360,13 +9360,13 @@
         <v>5</v>
       </c>
       <c r="D684">
-        <v>0.0009697439875872769</v>
+        <v>0.0009697439875872768</v>
       </c>
     </row>
     <row r="685">
       <c r="B685" t="inlineStr">
         <is>
-          <t>Huehuetlán el Chico</t>
+          <t>Huehuetlán El Chico</t>
         </is>
       </c>
       <c r="C685">
@@ -9392,7 +9392,7 @@
     <row r="687">
       <c r="B687" t="inlineStr">
         <is>
-          <t>Ixcamilpa de Guerrero</t>
+          <t>Ixcamilpa De Guerrero</t>
         </is>
       </c>
       <c r="C687">
@@ -9431,7 +9431,7 @@
     <row r="690">
       <c r="B690" t="inlineStr">
         <is>
-          <t>Izúcar de Matamoros</t>
+          <t>Izúcar De Matamoros</t>
         </is>
       </c>
       <c r="C690">
@@ -9496,7 +9496,7 @@
     <row r="695">
       <c r="B695" t="inlineStr">
         <is>
-          <t>Los Reyes de Juárez</t>
+          <t>Los Reyes De Juárez</t>
         </is>
       </c>
       <c r="C695">
@@ -9587,7 +9587,7 @@
     <row r="702">
       <c r="B702" t="inlineStr">
         <is>
-          <t>Palmar de Bravo</t>
+          <t>Palmar De Bravo</t>
         </is>
       </c>
       <c r="C702">
@@ -9808,7 +9808,7 @@
     <row r="719">
       <c r="B719" t="inlineStr">
         <is>
-          <t>San Salvador el Seco</t>
+          <t>San Salvador El Seco</t>
         </is>
       </c>
       <c r="C719">
@@ -9821,7 +9821,7 @@
     <row r="720">
       <c r="B720" t="inlineStr">
         <is>
-          <t>San Salvador el Verde</t>
+          <t>San Salvador El Verde</t>
         </is>
       </c>
       <c r="C720">
@@ -9925,7 +9925,7 @@
     <row r="728">
       <c r="B728" t="inlineStr">
         <is>
-          <t>Tepanco de López</t>
+          <t>Tepanco De López</t>
         </is>
       </c>
       <c r="C728">
@@ -9964,7 +9964,7 @@
     <row r="731">
       <c r="B731" t="inlineStr">
         <is>
-          <t>Tepexi de Rodríguez</t>
+          <t>Tepexi De Rodríguez</t>
         </is>
       </c>
       <c r="C731">
@@ -9990,7 +9990,7 @@
     <row r="733">
       <c r="B733" t="inlineStr">
         <is>
-          <t>Tetela de Ocampo</t>
+          <t>Tetela De Ocampo</t>
         </is>
       </c>
       <c r="C733">
@@ -10003,7 +10003,7 @@
     <row r="734">
       <c r="B734" t="inlineStr">
         <is>
-          <t>Teteles de Avila Castillo</t>
+          <t>Teteles De Avila Castillo</t>
         </is>
       </c>
       <c r="C734">
@@ -10055,7 +10055,7 @@
     <row r="738">
       <c r="B738" t="inlineStr">
         <is>
-          <t>Tlacotepec de Benito Juárez</t>
+          <t>Tlacotepec De Benito Juárez</t>
         </is>
       </c>
       <c r="C738">
@@ -10114,7 +10114,7 @@
         <v>5</v>
       </c>
       <c r="D742">
-        <v>0.0009697439875872769</v>
+        <v>0.0009697439875872768</v>
       </c>
     </row>
     <row r="743">
@@ -10309,7 +10309,7 @@
         <v>5</v>
       </c>
       <c r="D757">
-        <v>0.0009697439875872769</v>
+        <v>0.0009697439875872768</v>
       </c>
     </row>
     <row r="758">
@@ -10333,7 +10333,7 @@
       </c>
       <c r="B759" t="inlineStr">
         <is>
-          <t>Amealco de Bonfil</t>
+          <t>Amealco De Bonfil</t>
         </is>
       </c>
       <c r="C759">
@@ -10359,7 +10359,7 @@
     <row r="761">
       <c r="B761" t="inlineStr">
         <is>
-          <t>Cadereyta de Montes</t>
+          <t>Cadereyta De Montes</t>
         </is>
       </c>
       <c r="C761">
@@ -10437,7 +10437,7 @@
     <row r="767">
       <c r="B767" t="inlineStr">
         <is>
-          <t>Jalpan de Serra</t>
+          <t>Jalpan De Serra</t>
         </is>
       </c>
       <c r="C767">
@@ -10450,7 +10450,7 @@
     <row r="768">
       <c r="B768" t="inlineStr">
         <is>
-          <t>Landa de Matamoros</t>
+          <t>Landa De Matamoros</t>
         </is>
       </c>
       <c r="C768">
@@ -10489,7 +10489,7 @@
     <row r="771">
       <c r="B771" t="inlineStr">
         <is>
-          <t>Pinal de Amoles</t>
+          <t>Pinal De Amoles</t>
         </is>
       </c>
       <c r="C771">
@@ -10515,7 +10515,7 @@
     <row r="773">
       <c r="B773" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C773">
@@ -10655,7 +10655,7 @@
     <row r="783">
       <c r="B783" t="inlineStr">
         <is>
-          <t>Axtla de Terrazas</t>
+          <t>Axtla De Terrazas</t>
         </is>
       </c>
       <c r="C783">
@@ -10694,7 +10694,7 @@
     <row r="786">
       <c r="B786" t="inlineStr">
         <is>
-          <t>Ciudad del Maíz</t>
+          <t>Ciudad Del Maíz</t>
         </is>
       </c>
       <c r="C786">
@@ -10798,7 +10798,7 @@
     <row r="794">
       <c r="B794" t="inlineStr">
         <is>
-          <t>Mexquitic de Carmona</t>
+          <t>Mexquitic De Carmona</t>
         </is>
       </c>
       <c r="C794">
@@ -10818,7 +10818,7 @@
         <v>5</v>
       </c>
       <c r="D795">
-        <v>0.0009697439875872769</v>
+        <v>0.0009697439875872768</v>
       </c>
     </row>
     <row r="796">
@@ -10902,7 +10902,7 @@
     <row r="802">
       <c r="B802" t="inlineStr">
         <is>
-          <t>Santa María del Río</t>
+          <t>Santa María Del Río</t>
         </is>
       </c>
       <c r="C802">
@@ -10993,7 +10993,7 @@
     <row r="809">
       <c r="B809" t="inlineStr">
         <is>
-          <t>Tanquián de Escobedo</t>
+          <t>Tanquián De Escobedo</t>
         </is>
       </c>
       <c r="C809">
@@ -11045,7 +11045,7 @@
     <row r="813">
       <c r="B813" t="inlineStr">
         <is>
-          <t>Villa de Guadalupe</t>
+          <t>Villa De Guadalupe</t>
         </is>
       </c>
       <c r="C813">
@@ -11058,7 +11058,7 @@
     <row r="814">
       <c r="B814" t="inlineStr">
         <is>
-          <t>Villa de la Paz</t>
+          <t>Villa De La Paz</t>
         </is>
       </c>
       <c r="C814">
@@ -11071,7 +11071,7 @@
     <row r="815">
       <c r="B815" t="inlineStr">
         <is>
-          <t>Villa de Ramos</t>
+          <t>Villa De Ramos</t>
         </is>
       </c>
       <c r="C815">
@@ -11192,7 +11192,7 @@
         <v>5</v>
       </c>
       <c r="D823">
-        <v>0.0009697439875872769</v>
+        <v>0.0009697439875872768</v>
       </c>
     </row>
     <row r="824">
@@ -11301,7 +11301,7 @@
         <v>5</v>
       </c>
       <c r="D831">
-        <v>0.0009697439875872769</v>
+        <v>0.0009697439875872768</v>
       </c>
     </row>
     <row r="832">
@@ -11372,7 +11372,7 @@
     <row r="837">
       <c r="B837" t="inlineStr">
         <is>
-          <t>Jalpa de Méndez</t>
+          <t>Jalpa De Méndez</t>
         </is>
       </c>
       <c r="C837">
@@ -11579,7 +11579,7 @@
         <v>5</v>
       </c>
       <c r="D852">
-        <v>0.0009697439875872769</v>
+        <v>0.0009697439875872768</v>
       </c>
     </row>
     <row r="853">
@@ -11811,7 +11811,7 @@
     <row r="870">
       <c r="B870" t="inlineStr">
         <is>
-          <t>Papalotla de Xicohténcatl</t>
+          <t>Papalotla De Xicohténcatl</t>
         </is>
       </c>
       <c r="C870">
@@ -11850,7 +11850,7 @@
     <row r="873">
       <c r="B873" t="inlineStr">
         <is>
-          <t>Tetla de la Solidaridad</t>
+          <t>Tetla De La Solidaridad</t>
         </is>
       </c>
       <c r="C873">
@@ -12063,7 +12063,7 @@
     <row r="889">
       <c r="B889" t="inlineStr">
         <is>
-          <t>Amatlán de los Reyes</t>
+          <t>Amatlán De Los Reyes</t>
         </is>
       </c>
       <c r="C889">
@@ -12128,7 +12128,7 @@
     <row r="894">
       <c r="B894" t="inlineStr">
         <is>
-          <t>Boca del Río</t>
+          <t>Boca Del Río</t>
         </is>
       </c>
       <c r="C894">
@@ -12180,7 +12180,7 @@
     <row r="898">
       <c r="B898" t="inlineStr">
         <is>
-          <t>Castillo de Teayo</t>
+          <t>Castillo De Teayo</t>
         </is>
       </c>
       <c r="C898">
@@ -12206,7 +12206,7 @@
     <row r="900">
       <c r="B900" t="inlineStr">
         <is>
-          <t>Cazones de Herrera</t>
+          <t>Cazones De Herrera</t>
         </is>
       </c>
       <c r="C900">
@@ -12349,7 +12349,7 @@
     <row r="911">
       <c r="B911" t="inlineStr">
         <is>
-          <t>Cosamaloapan de Carpio</t>
+          <t>Cosamaloapan De Carpio</t>
         </is>
       </c>
       <c r="C911">
@@ -12362,7 +12362,7 @@
     <row r="912">
       <c r="B912" t="inlineStr">
         <is>
-          <t>Cosautlán de Carvajal</t>
+          <t>Cosautlán De Carvajal</t>
         </is>
       </c>
       <c r="C912">
@@ -12531,7 +12531,7 @@
     <row r="925">
       <c r="B925" t="inlineStr">
         <is>
-          <t>Hueyapan de Ocampo</t>
+          <t>Hueyapan De Ocampo</t>
         </is>
       </c>
       <c r="C925">
@@ -12564,13 +12564,13 @@
         <v>5</v>
       </c>
       <c r="D927">
-        <v>0.0009697439875872769</v>
+        <v>0.0009697439875872768</v>
       </c>
     </row>
     <row r="928">
       <c r="B928" t="inlineStr">
         <is>
-          <t>Ixhuatlán de Madero</t>
+          <t>Ixhuatlán De Madero</t>
         </is>
       </c>
       <c r="C928">
@@ -12583,7 +12583,7 @@
     <row r="929">
       <c r="B929" t="inlineStr">
         <is>
-          <t>Ixhuatlán del Café</t>
+          <t>Ixhuatlán Del Café</t>
         </is>
       </c>
       <c r="C929">
@@ -12674,7 +12674,7 @@
     <row r="936">
       <c r="B936" t="inlineStr">
         <is>
-          <t>Juchique de Ferrer</t>
+          <t>Juchique De Ferrer</t>
         </is>
       </c>
       <c r="C936">
@@ -12713,7 +12713,7 @@
     <row r="939">
       <c r="B939" t="inlineStr">
         <is>
-          <t>Lerdo de Tejada</t>
+          <t>Lerdo De Tejada</t>
         </is>
       </c>
       <c r="C939">
@@ -12726,7 +12726,7 @@
     <row r="940">
       <c r="B940" t="inlineStr">
         <is>
-          <t>Martínez de la Torre</t>
+          <t>Martínez De La Torre</t>
         </is>
       </c>
       <c r="C940">
@@ -12752,7 +12752,7 @@
     <row r="942">
       <c r="B942" t="inlineStr">
         <is>
-          <t>Medellín de Bravo</t>
+          <t>Medellín De Bravo</t>
         </is>
       </c>
       <c r="C942">
@@ -12785,7 +12785,7 @@
         <v>5</v>
       </c>
       <c r="D944">
-        <v>0.0009697439875872769</v>
+        <v>0.0009697439875872768</v>
       </c>
     </row>
     <row r="945">
@@ -12798,7 +12798,7 @@
         <v>5</v>
       </c>
       <c r="D945">
-        <v>0.0009697439875872769</v>
+        <v>0.0009697439875872768</v>
       </c>
     </row>
     <row r="946">
@@ -12882,7 +12882,7 @@
     <row r="952">
       <c r="B952" t="inlineStr">
         <is>
-          <t>Paso del Macho</t>
+          <t>Paso Del Macho</t>
         </is>
       </c>
       <c r="C952">
@@ -12934,7 +12934,7 @@
     <row r="956">
       <c r="B956" t="inlineStr">
         <is>
-          <t>Poza Rica de Hidalgo</t>
+          <t>Poza Rica De Hidalgo</t>
         </is>
       </c>
       <c r="C956">
@@ -13025,7 +13025,7 @@
     <row r="963">
       <c r="B963" t="inlineStr">
         <is>
-          <t>Sayula de Alemán</t>
+          <t>Sayula De Alemán</t>
         </is>
       </c>
       <c r="C963">
@@ -13051,7 +13051,7 @@
     <row r="965">
       <c r="B965" t="inlineStr">
         <is>
-          <t>Soledad de Doblado</t>
+          <t>Soledad De Doblado</t>
         </is>
       </c>
       <c r="C965">
@@ -13337,7 +13337,7 @@
     <row r="987">
       <c r="B987" t="inlineStr">
         <is>
-          <t>Vega de Alatorre</t>
+          <t>Vega De Alatorre</t>
         </is>
       </c>
       <c r="C987">
@@ -13542,7 +13542,7 @@
     <row r="1002">
       <c r="B1002" t="inlineStr">
         <is>
-          <t>Concepción del Oro</t>
+          <t>Concepción Del Oro</t>
         </is>
       </c>
       <c r="C1002">
@@ -13633,7 +13633,7 @@
     <row r="1009">
       <c r="B1009" t="inlineStr">
         <is>
-          <t>Jiménez del Teul</t>
+          <t>Jiménez Del Teul</t>
         </is>
       </c>
       <c r="C1009">
@@ -13698,7 +13698,7 @@
     <row r="1014">
       <c r="B1014" t="inlineStr">
         <is>
-          <t>Mezquital del Oro</t>
+          <t>Mezquital Del Oro</t>
         </is>
       </c>
       <c r="C1014">
@@ -13711,7 +13711,7 @@
     <row r="1015">
       <c r="B1015" t="inlineStr">
         <is>
-          <t>Moyahua de Estrada</t>
+          <t>Moyahua De Estrada</t>
         </is>
       </c>
       <c r="C1015">
@@ -13724,14 +13724,14 @@
     <row r="1016">
       <c r="B1016" t="inlineStr">
         <is>
-          <t>Noria de Ángeles</t>
+          <t>Noria De Ángeles</t>
         </is>
       </c>
       <c r="C1016">
         <v>5</v>
       </c>
       <c r="D1016">
-        <v>0.0009697439875872769</v>
+        <v>0.0009697439875872768</v>
       </c>
     </row>
     <row r="1017">
@@ -13770,7 +13770,7 @@
         <v>5</v>
       </c>
       <c r="D1019">
-        <v>0.0009697439875872769</v>
+        <v>0.0009697439875872768</v>
       </c>
     </row>
     <row r="1020">
@@ -13828,7 +13828,7 @@
     <row r="1024">
       <c r="B1024" t="inlineStr">
         <is>
-          <t>Teúl de González Ortega</t>
+          <t>Teúl De González Ortega</t>
         </is>
       </c>
       <c r="C1024">
@@ -13854,7 +13854,7 @@
     <row r="1026">
       <c r="B1026" t="inlineStr">
         <is>
-          <t>Villa de Cos</t>
+          <t>Villa De Cos</t>
         </is>
       </c>
       <c r="C1026">
@@ -13914,41 +13914,6 @@
       </c>
       <c r="D1030">
         <v>1</v>
-      </c>
-    </row>
-    <row r="1032">
-      <c r="A1032" t="inlineStr">
-        <is>
-          <t>Tamaño de la muestra: 814,748</t>
-        </is>
-      </c>
-    </row>
-    <row r="1033">
-      <c r="A1033" t="inlineStr">
-        <is>
-          <t>Fuente: Expedición de Matrículas Consulares de Alta Seguridad en los Consulados de México en E.E.U.U.</t>
-        </is>
-      </c>
-    </row>
-    <row r="1034">
-      <c r="A1034" t="inlineStr">
-        <is>
-          <t>Elaborado por: Análisis de Información, Instituto de los Mexicanos en el Exterior</t>
-        </is>
-      </c>
-    </row>
-    <row r="1035">
-      <c r="A1035" t="inlineStr">
-        <is>
-          <t>Secretaría de Relaciones Exteriores</t>
-        </is>
-      </c>
-    </row>
-    <row r="1036">
-      <c r="A1036" t="inlineStr">
-        <is>
-          <t>Marzo de 2017</t>
-        </is>
       </c>
     </row>
   </sheetData>
